--- a/Recycling/Met_rec/metrec_Avg_target.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_target.xlsx
@@ -111,6 +111,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="4">
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +495,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -492,7 +533,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,11 +545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0272142561777683</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0005364490943057312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.606317926234184E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0001469053834596606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0006505447105085736</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +583,7 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,11 +595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6490.470449405948</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11689.04917392438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15516.22879287706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9077.86804290878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>89659.91794208226</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +633,7 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,11 +645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6671.179354810343</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12204.61730496262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16257.28936288512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9534.165361512503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>93398.34033518124</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +683,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,11 +695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.05841802435121751</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.001153724216115791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.229423470826172E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0002891782482980633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.001250194800305724</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +733,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,11 +745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.1179277266569539</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.002333110274932037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0001351499134153955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0005361604882098145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.002244569537220751</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +783,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,11 +795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.2275299202333438</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.004509003728680601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0002397739795504932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0009470830803617598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.003818563403526603</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +833,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,11 +845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.4247783929054646</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.008431127668221418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0004124221708964691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.001611825305506745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.006229262212466721</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +883,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,11 +895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.772611245880175</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0153561201434351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0007048290555559579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.002669367403233443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.009842817182017212</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +933,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,11 +945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.369430370079741</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0272470739068272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.001222893004660622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.004331680330899161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.01518416215468137</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +983,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,11 +995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.357414409831933</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.04693647739719901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.002179537215673597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.006911588506237627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.02300793234264889</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,11 +1045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.92869242323618</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07824612637714465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.003967909806268084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.01085390951237118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.03439731616831778</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,11 +1095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6.329494936633031</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1260668642126656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.007261222713196678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.01677193437903359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0508815442226718</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -816,10 +1145,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -830,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -842,11 +1195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9.861646751042617</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.196385144587193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.01316775164671491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.02549152412229293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.07455775282875307</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,11 +1245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14.8803251641318</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.2962346112916784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.02344210352975343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.03809205469777656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1082109299870992</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -894,11 +1295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>21.78700412961271</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.4335498381355201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.04070495485010878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0559353613095765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1554281342222356</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,11 +1345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>31.01626784344816</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.6168942828401194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0686366054093689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.08068177118830247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2207036126491744</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,11 +1395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>43.01431837181368</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.8550222029097648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1121521891494506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1142934726417703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.3095196866163172</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -972,11 +1445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>58.20727033470025</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.780834582293494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.5806318330389781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.5199967704346053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.400810286290232</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -998,11 +1495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>76.96060284817689</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.433092608604088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.506214263839753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.200346237842433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.229576587320721</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,11 +1545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>99.53670837755378</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15.21841326590694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.146320257263403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.255680176225566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6.082412940979871</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,11 +1595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>126.0516261412586</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24.4608768909948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5.842249878990258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.804170646033079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10.31200776654767</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,11 +1645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>156.4381197013865</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>36.32814302560086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10.03317910915261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.986066065856411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>16.35791703384463</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,11 +1695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.522311745207643E-07</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.938961119281515E-09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.266709437893566E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.765416959986049E-09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7.486782779805745E-09</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,11 +1745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>190.4417887577871</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>50.76326624101944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.27810657757694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8.97450533773798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24.79222024815322</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1154,11 +1795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>227.6620395285331</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>67.44070291115652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>25.28474892285799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12.99332201209942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>36.39225553817209</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,11 +1845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>267.6450281888015</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>86.29626232258855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>38.16282620074406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18.44910237297706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>52.5396073660269</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,11 +1895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>310.0448071841367</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>107.5780443040234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>56.62530055496536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>26.01240057220565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>75.49988593788223</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1232,11 +1945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>354.8682378786423</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>131.3176094669183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>82.87474316975336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>36.56226026217418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>108.3168894544088</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,11 +1995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>402.8086930267156</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>157.8322200901895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>119.8537134477105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>51.32222473008718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>155.2568451226557</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1284,11 +2045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>455.6542127426587</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>187.9745558389657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>171.4022331270199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>71.94742349619061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>222.1377316918382</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1310,11 +2095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>516.7249357551455</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>223.4331553108949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>242.4215253710588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>100.6158371920019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>316.6893580789382</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1336,11 +2145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>591.2569045138847</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>267.0444057673927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>339.0376429242196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>140.1166235047456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>448.9245338972271</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,11 +2195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>686.6104345285015</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>323.0486934653824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>468.7441545451169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>193.9196884538948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>631.4748950429987</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +2233,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1388,11 +2245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.059969688604628E-05</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.075380126649251E-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.022642723303918E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7.487476844701429E-08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.182207717533172E-07</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,11 +2295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>812.1571550510882</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>397.1986114109566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>640.4737241010786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>266.196417198487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>879.7982429320402</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +2333,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1440,11 +2345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>978.751420819188</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>496.6391241784081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>864.5493041339826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>361.7620401619811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1212.161421932036</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1466,11 +2395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1197.770866361221</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>629.5138512037092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1152.457899694424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>485.9100230737478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1649.294101919052</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,11 +2445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1479.796188274926</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>804.2980178557337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1516.366815692265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>644.1057488067344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2213.587047645656</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,11 +2495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1833.08204498162</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1028.910196681849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1968.290894752726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>841.5115576223079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2927.708945749503</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1544,11 +2545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2262.011171642403</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1309.688999349977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2518.828267900322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1082.329429522829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3812.54718499931</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +2583,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,11 +2595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2765.716212144966</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1650.332560558979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3175.440108664801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1368.978334640721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4884.475894224911</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1596,11 +2645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3337.009366189539</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2050.886461316011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3940.347913627837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1701.166440364025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6152.097726107193</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +2683,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1622,11 +2695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3961.722768086145</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2506.853149616918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4808.253268535388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2074.970010469946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7612.779870892908</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,11 +2745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4618.572151003298</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3008.513643455463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5764.237675462103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2482.084040286527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9249.497078400698</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1674,11 +2795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9.325414687080241E-05</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.825450522702422E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.126705364119609E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.791584709400182E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.911972708066629E-06</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +2833,7 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1700,11 +2845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5279.702558400813</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3540.602302287098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6782.330599845712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2909.447723598968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11028.65494933869</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +2883,7 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1726,11 +2895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5912.09942406698</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4082.52079307428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7825.282364393016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3339.445156461604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12899.61164847386</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1752,11 +2945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6479.981133784949</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4605.932495869304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8839.57786210375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3748.104317949722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>14785.7706010338</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,11 +2995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6948.100195073665</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5078.256091209293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9762.00915395759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4108.244449365452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>16593.70705578612</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +3033,7 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1804,11 +3045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7285.609311514762</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5469.773778005308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10533.47077887228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4395.511284649064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>18234.49429085732</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,11 +3095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7469.89431107988</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5754.55230724623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11101.11653888709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4589.271020564934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19625.68054802886</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,11 +3145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7489.652187467243</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5913.717167221071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11425.14033248816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4675.309297187682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20701.04011456405</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1882,11 +3195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7346.578735250323</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5937.992152830437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11484.1599395101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4647.79547055817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>21418.67202497219</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +3233,7 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1908,11 +3245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7055.330635278254</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5829.044674715146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11278.21803626277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4510.171262136397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>21766.15757917593</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +3283,7 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1934,11 +3295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6641.851879873824</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5599.478564117051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10829.01533327176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4274.890347569714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>21762.30874275995</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,11 +3345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0004429988183272756</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.672772042145808E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.309294133011011E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.24951949359686E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.414718970301667E-05</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1986,11 +3395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6140.5365115507</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5271.655596363698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10177.69272911409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3962.211232570597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>21455.91303970034</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +3433,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2012,11 +3445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5590.876681032301</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4875.749802910036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9380.972670117228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3598.411522498513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20922.35483131176</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +3483,7 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,11 +3495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5034.142152821512</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4447.437069134481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8506.512520001876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3213.773150108488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20258.82606919985</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +3533,7 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2064,11 +3545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4510.334639519539</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4025.417526456444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7627.931574992469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2840.510673504606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19578.20929218693</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2090,11 +3595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4055.378216332709</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3648.728231272909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6819.484950702536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2510.612891274563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19001.20115754417</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +3633,7 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,11 +3645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3698.464730638448</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3353.746608475113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6150.226838279097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2253.512030670443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>18646.45322488076</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +3683,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2142,11 +3695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3459.710380426009</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3171.004190228535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5677.931820896078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2093.66012958149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>18619.5279490528</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +3733,7 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2168,11 +3745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3348.592839797503</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3122.284074586613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5443.734081361665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2048.36863147501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19002.64961076179</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +3783,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,11 +3795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3363.722470769616</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3218.672302685289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5468.799301527763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2126.421550752423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19847.6176819067</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +3833,7 @@
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2220,11 +3845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3494.195255696742</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3460.058927030295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5753.93415792217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2327.827559803502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>21173.36127832147</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2246,11 +3895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.001548347350122901</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.034187644708378E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.335820979552495E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.092426934880866E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.838082825403432E-05</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +3933,7 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,11 +3945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3722.209385293617</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3836.091747516498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6281.991267391827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2644.66863963461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>22967.88341620072</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2298,11 +3995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4026.147670345519</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4328.079965527523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7021.883548977756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3062.585971210037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>25192.84857896056</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +4033,7 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2324,11 +4045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4383.244479293706</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4911.15882404487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7932.665718444702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3562.304716235338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>27788.72390316553</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2350,11 +4095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4771.313715955022</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5556.25848410756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8966.675941510015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4120.833599777853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>30679.27691132436</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2376,11 +4145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5169.558356894181</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6231.849475706937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10071.71189584198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4712.395425028504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>33775.56788081821</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +4183,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2402,11 +4195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5558.857910430498</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6905.704703514302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11192.91068376474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5309.425938289307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>36980.32266446154</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +4233,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2428,11 +4245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5921.958983964244</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7546.839583143884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12275.00214111571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5883.931851492184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>40193.29194296508</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +4283,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2454,11 +4295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6243.776285382418</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8127.50183983423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13265.11123812921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6409.216820378094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>43317.34963754168</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +4333,7 @@
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2480,11 +4345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6511.786012453506</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8624.880184274003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14115.82552268526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6861.727112884607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>46264.49473480159</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +4383,7 @@
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2506,11 +4395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6716.413474581216</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9022.259881861582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14788.13916001881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7222.715682496148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>48961.02610634913</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +4433,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2532,11 +4445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.004530038632641777</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.892848098494934E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.71686152593415E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.95476495544266E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0001323705310514019</v>
       </c>
     </row>
   </sheetData>
@@ -2546,7 +4483,7 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2558,11 +4495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6851.360248736409</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9309.589507514405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15254.02932527997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7479.541031840953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>51351.67926567977</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +4533,7 @@
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2584,11 +4545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6913.876139652837</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9483.622541397461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15498.52518958278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7626.546814543895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>53402.86009834546</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +4583,7 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,11 +4595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6904.987654675386</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9547.82255332569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15521.07150695155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7665.499110956504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>55104.99555706136</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +4633,7 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2636,11 +4645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6829.652536640884</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9512.101152160467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15335.89104450251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7605.514039629398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>56473.65524411574</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +4683,7 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2662,11 +4695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6696.758370403177</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9392.321833516513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14971.09289600412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7462.391284946085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>57548.91125914733</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +4733,7 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2688,11 +4745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6518.853961107196</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9209.45649270793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14466.49835665111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7257.347601994494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>58392.63499289379</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +4783,7 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2714,11 +4795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6311.512075327809</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8988.341116529176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13870.44349558956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7015.287904852239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>59083.93439986299</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +4833,7 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2740,11 +4845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6092.278891980803</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8756.081684828036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13236.00270724781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6762.860237400569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>59713.34225792411</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +4883,7 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2766,11 +4895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5879.265155893758</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8540.23863536417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12617.08177257181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6526.539464730259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>60376.41993628201</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +4933,7 @@
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2792,11 +4945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5689.550074163003</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8366.942956121185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12064.70437058324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6330.890350118643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>61167.22479350647</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2818,11 +4995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.01168408347465039</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0002298464712984324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.64726998061504E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.925779094909003E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0003104777039812977</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +5033,7 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2844,11 +5045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5537.653536718327</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8259.092793584077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11623.68436675565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6197.062399308677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>62171.91097173923</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +5083,7 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2870,11 +5095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5434.339751126628</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8234.776987822219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11329.8238799716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6141.539509242824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>63462.797655022</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,11 +5145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5385.933099285723</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8306.069917969879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11207.79248625854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6175.200340714025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>65093.43896077803</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +5183,7 @@
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2922,11 +5195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5394.190353391518</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8478.317130212181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11269.85038186205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6302.77604888675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>67095.29158002802</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +5233,7 @@
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2948,11 +5245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5456.64570177227</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8749.972055821914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11515.52070899219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6522.769758332834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>69476.35536616811</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +5283,7 @@
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2974,11 +5295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5567.276364837552</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9112.967924111601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11932.202413764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6827.833148996329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>72221.77180182302</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +5333,7 @@
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3000,11 +5345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5717.335878597766</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9553.547057269629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12496.59972772508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7205.525788751549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>75296.0470261694</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +5383,7 @@
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3026,11 +5395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5896.24110625409</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10053.43884469337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13176.77513346393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7639.350259277795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>78646.45297490816</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +5433,7 @@
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3052,11 +5445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6092.442246421418</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10591.27290823477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13934.6183710396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8109.963781795665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>82207.21738919492</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +5483,7 @@
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3078,11 +5495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6294.233032050728</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11144.11910841896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14728.54128545269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8596.490187050909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>85904.21519298978</v>
       </c>
     </row>
   </sheetData>
